--- a/dados/rbrondoneirelime.xlsx
+++ b/dados/rbrondoneirelime.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,35 +436,45 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>loja</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>nome</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>modelo</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>preco</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>politica</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>full</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -473,132 +483,172 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>rbrondoneirelime</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>Fonte Carregador Jfa Storm 60 Amperes Bivolt Com Voltímetro</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>FONTE 60A STORM</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="E2" t="n">
         <v>498.9</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3687576338-fonte-carregador-jfa-storm-60-amperes-bivolt-com-voltimetro-_JM#position%3D1%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D774e9a8f-90ec-46c0-afa7-b54d38a79423</t>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3687576338-fonte-carregador-jfa-storm-60-amperes-bivolt-com-voltimetro-_JM#position%3D1%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1c6ba195-e19e-4b88-be84-7a934058ae19</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>rbrondoneirelime</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>FONTE 60A STORM</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="E3" t="n">
         <v>469.9</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3334858103-fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca-_JM#position%3D2%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D774e9a8f-90ec-46c0-afa7-b54d38a79423</t>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3334858103-fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca-_JM#position%3D2%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1c6ba195-e19e-4b88-be84-7a934058ae19</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>rbrondoneirelime</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>Filtro Antirruído Jfa 20/20k Eletromagnético Rca Para Som</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="E4" t="n">
         <v>92.90000000000001</v>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4376052480-filtro-antirruido-jfa-2020k-eletromagnetico-rca-para-som-_JM#position%3D3%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D774e9a8f-90ec-46c0-afa7-b54d38a79423</t>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4376052480-filtro-antirruido-jfa-2020k-eletromagnetico-rca-para-som-_JM#position%3D3%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1c6ba195-e19e-4b88-be84-7a934058ae19</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>rbrondoneirelime</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>Filtro Anti Ruído Jfa P/ Rca Cd Dvd Eletromagnético Stereo</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="E5" t="n">
         <v>96.90000000000001</v>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1800331683-filtro-anti-ruido-jfa-p-rca-cd-dvd-eletromagnetico-stereo-_JM#position%3D4%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D774e9a8f-90ec-46c0-afa7-b54d38a79423</t>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1800331683-filtro-anti-ruido-jfa-p-rca-cd-dvd-eletromagnetico-stereo-_JM#position%3D4%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1c6ba195-e19e-4b88-be84-7a934058ae19</t>
         </is>
       </c>
     </row>

--- a/dados/rbrondoneirelime.xlsx
+++ b/dados/rbrondoneirelime.xlsx
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -521,14 +521,14 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3687576338-fonte-carregador-jfa-storm-60-amperes-bivolt-com-voltimetro-_JM#position%3D1%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1c6ba195-e19e-4b88-be84-7a934058ae19</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3687576338-fonte-carregador-jfa-storm-60-amperes-bivolt-com-voltimetro-_JM#position%3D1%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D50f68339-6ae8-469a-a0bc-bdda891302ba</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -538,22 +538,18 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>Filtro Anti Ruído Jfa P/ Rca Cd Dvd Eletromagnético Stereo</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>469.9</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>96.90000000000001</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
           <t>NA</t>
@@ -561,19 +557,19 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3334858103-fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca-_JM#position%3D2%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1c6ba195-e19e-4b88-be84-7a934058ae19</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1800331683-filtro-anti-ruido-jfa-p-rca-cd-dvd-eletromagnetico-stereo-_JM#position%3D4%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D50f68339-6ae8-469a-a0bc-bdda891302ba</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -607,14 +603,14 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4376052480-filtro-antirruido-jfa-2020k-eletromagnetico-rca-para-som-_JM#position%3D3%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1c6ba195-e19e-4b88-be84-7a934058ae19</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4376052480-filtro-antirruido-jfa-2020k-eletromagnetico-rca-para-som-_JM#position%3D3%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D50f68339-6ae8-469a-a0bc-bdda891302ba</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -624,18 +620,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Filtro Anti Ruído Jfa P/ Rca Cd Dvd Eletromagnético Stereo</t>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>96.90000000000001</v>
-      </c>
-      <c r="F5" t="inlineStr"/>
+        <v>469.9</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr">
         <is>
           <t>NA</t>
@@ -643,12 +643,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1800331683-filtro-anti-ruido-jfa-p-rca-cd-dvd-eletromagnetico-stereo-_JM#position%3D4%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1c6ba195-e19e-4b88-be84-7a934058ae19</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3334858103-fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca-_JM#position%3D2%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D50f68339-6ae8-469a-a0bc-bdda891302ba</t>
         </is>
       </c>
     </row>
